--- a/mess.xlsx
+++ b/mess.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pkml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crossgate\pkml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218372D3-E0F0-495A-A3B2-CE550C4E223D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F15051-A395-4ED9-B6F5-8E527335F851}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30504" yWindow="0" windowWidth="30936" windowHeight="16800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="1605" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗系" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="228">
   <si>
     <t>右边</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -805,11 +805,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4+33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38+24</t>
+    <t>1木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20+31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23+25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咒术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7木</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +880,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,12 +890,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,7 +1047,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1332,10 +1353,10 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.25" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
@@ -1490,26 +1511,41 @@
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -1544,6 +1580,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1552,10 +1589,10 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.25" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
@@ -1611,6 +1648,9 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1620,9 +1660,12 @@
         <v>129</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1685,6 +1728,12 @@
         <v>139</v>
       </c>
       <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1761,6 +1810,9 @@
       <c r="D21" s="2">
         <v>1</v>
       </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1775,6 +1827,9 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -1787,6 +1842,9 @@
         <v>5</v>
       </c>
       <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1907,7 +1965,7 @@
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.25" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
@@ -2029,7 +2087,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2038,23 +2096,23 @@
       <c r="A1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="16" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -2096,8 +2154,12 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I3" s="10">
+        <v>15</v>
+      </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -2144,8 +2206,12 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="10">
+        <v>39</v>
+      </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2170,7 +2236,7 @@
         <v>94</v>
       </c>
       <c r="I6" s="10">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -2182,12 +2248,8 @@
       <c r="A7" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>220</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -2196,7 +2258,7 @@
         <v>156</v>
       </c>
       <c r="I7" s="10">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -2274,11 +2336,11 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="16" t="s">
         <v>157</v>
       </c>
       <c r="I10" s="10">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2290,21 +2352,17 @@
       <c r="A11" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="10">
-        <v>9</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="16" t="s">
         <v>140</v>
       </c>
       <c r="I11" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2317,20 +2375,20 @@
         <v>169</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="10">
-        <v>15</v>
+        <v>142</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="16" t="s">
         <v>158</v>
       </c>
       <c r="I12" s="10">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -2345,18 +2403,18 @@
       <c r="B13" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="10">
-        <v>16</v>
+      <c r="C13" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="16" t="s">
         <v>147</v>
       </c>
       <c r="I13" s="10">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -2395,10 +2453,10 @@
         <v>172</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>221</v>
+        <v>159</v>
+      </c>
+      <c r="C15" s="10">
+        <v>9</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -2420,17 +2478,21 @@
       <c r="A16" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
       <c r="H16" s="3" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="I16" s="10">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
@@ -2442,8 +2504,12 @@
       <c r="A17" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -2452,7 +2518,7 @@
         <v>214</v>
       </c>
       <c r="I17" s="10">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2496,7 +2562,7 @@
         <v>212</v>
       </c>
       <c r="I19" s="10">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2781,11 +2847,12 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="14" width="8.875" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -2793,23 +2860,23 @@
       <c r="A1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="16" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -3440,10 +3507,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -3994,6 +4061,9 @@
       <c r="D48" s="1">
         <v>1</v>
       </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
       <c r="F48" s="1">
         <v>1</v>
       </c>
@@ -4011,6 +4081,12 @@
       <c r="D49" s="1">
         <v>1</v>
       </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -4022,6 +4098,12 @@
       <c r="D50" s="1">
         <v>1</v>
       </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -4088,6 +4170,15 @@
         <v>58</v>
       </c>
       <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
         <v>1</v>
       </c>
     </row>

--- a/mess.xlsx
+++ b/mess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crossgate\pkml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F15051-A395-4ED9-B6F5-8E527335F851}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8DDB8D-5B5C-47EF-AE79-860D156519ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1605" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31848" yWindow="1368" windowWidth="28800" windowHeight="15432" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗系" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="231">
   <si>
     <t>右边</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -809,10 +809,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20+31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>23+25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,15 +821,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3+13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12+9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20+13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,7 +892,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -890,6 +902,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1053,6 +1077,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1060,6 +1093,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,7 +1548,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1520,7 +1556,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1528,7 +1564,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1536,7 +1572,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1544,7 +1580,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2087,7 +2123,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2096,23 +2132,23 @@
       <c r="A1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -2128,10 +2164,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="23">
         <v>58</v>
       </c>
       <c r="J2" s="5"/>
@@ -2158,7 +2194,7 @@
         <v>220</v>
       </c>
       <c r="I3" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -2207,7 +2243,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I5" s="10">
         <v>39</v>
@@ -2248,8 +2284,12 @@
       <c r="A7" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="10">
+        <v>50</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -2358,11 +2398,11 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="I11" s="10">
-        <v>60</v>
+      <c r="I11" s="18">
+        <v>47</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2378,7 +2418,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -2404,17 +2444,17 @@
         <v>161</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="10">
-        <v>31</v>
+      <c r="I13" s="18">
+        <v>18</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -2436,10 +2476,10 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="23">
         <v>3</v>
       </c>
       <c r="J14" s="10"/>
@@ -2482,14 +2522,14 @@
         <v>160</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
       <c r="H16" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I16" s="10">
         <v>60</v>
@@ -2507,8 +2547,8 @@
       <c r="B17" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>225</v>
+      <c r="C17" s="10">
+        <v>14</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -2530,8 +2570,12 @@
       <c r="A18" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -2558,11 +2602,11 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="I19" s="10">
-        <v>16</v>
+      <c r="I19" s="18">
+        <v>3</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -2580,10 +2624,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="19">
         <v>34</v>
       </c>
       <c r="J20" s="10"/>
@@ -2847,7 +2891,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2860,23 +2904,23 @@
       <c r="A1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -2996,7 +3040,9 @@
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -3006,7 +3052,7 @@
         <v>146</v>
       </c>
       <c r="I7" s="10">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -3018,7 +3064,9 @@
       <c r="A8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>

--- a/mess.xlsx
+++ b/mess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crossgate\pkml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8DDB8D-5B5C-47EF-AE79-860D156519ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBECB61F-E12A-4289-BF2D-C0E4DC9C53D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31848" yWindow="1368" windowWidth="28800" windowHeight="15432" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30504" yWindow="0" windowWidth="30936" windowHeight="16800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗系" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="232">
   <si>
     <t>右边</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小麦粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,10 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23+25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>忍者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,31 +813,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20+13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13+14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16+35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>7木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20+13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +896,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -908,12 +912,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,6 +1084,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,9 +1092,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1548,7 +1544,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1556,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1564,7 +1560,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1572,7 +1568,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1580,7 +1576,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1645,13 +1641,13 @@
         <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1835,10 +1831,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
@@ -1855,7 +1851,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
@@ -1872,7 +1868,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -1889,7 +1885,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2">
         <v>6</v>
@@ -1906,7 +1902,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
@@ -1923,7 +1919,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2">
         <v>6</v>
@@ -1940,7 +1936,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -1957,7 +1953,7 @@
         <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -1974,7 +1970,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -2015,16 +2011,16 @@
         <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2123,32 +2119,35 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="9" width="9" style="20"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="20" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -2164,11 +2163,11 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" s="23">
-        <v>58</v>
+      <c r="H2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="18">
+        <v>60</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -2190,10 +2189,10 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="H3" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="19">
         <v>13</v>
       </c>
       <c r="J3" s="10"/>
@@ -2207,7 +2206,7 @@
         <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="10">
         <v>60</v>
@@ -2216,10 +2215,10 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="19">
         <v>60</v>
       </c>
       <c r="J4" s="10"/>
@@ -2242,10 +2241,10 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="H5" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" s="19">
         <v>39</v>
       </c>
       <c r="J5" s="10"/>
@@ -2256,7 +2255,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>91</v>
@@ -2268,10 +2267,10 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="19">
         <v>57</v>
       </c>
       <c r="J6" s="10"/>
@@ -2282,22 +2281,22 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="10">
-        <v>50</v>
+      <c r="C7" s="18">
+        <v>14</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="H7" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="19">
         <v>36</v>
       </c>
       <c r="J7" s="10"/>
@@ -2308,7 +2307,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>67</v>
@@ -2324,10 +2323,10 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="19">
         <v>60</v>
       </c>
       <c r="J8" s="10"/>
@@ -2338,7 +2337,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>89</v>
@@ -2350,11 +2349,11 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" s="10">
-        <v>60</v>
+      <c r="H9" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="19">
+        <v>58</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -2364,10 +2363,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="10">
         <v>60</v>
@@ -2377,10 +2376,10 @@
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="10">
-        <v>40</v>
+        <v>156</v>
+      </c>
+      <c r="I10" s="19">
+        <v>20</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -2390,19 +2389,23 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="10"/>
+        <v>167</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="18">
+        <v>20</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I11" s="18">
-        <v>47</v>
+      <c r="I11" s="19">
+        <v>60</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
@@ -2412,23 +2415,23 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
       <c r="H12" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I12" s="10">
-        <v>33</v>
+        <v>157</v>
+      </c>
+      <c r="I12" s="19">
+        <v>43</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -2438,23 +2441,23 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="17" t="s">
-        <v>147</v>
+      <c r="H13" s="18" t="s">
+        <v>231</v>
       </c>
       <c r="I13" s="18">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -2464,10 +2467,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="10">
         <v>22</v>
@@ -2476,11 +2479,11 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="23">
-        <v>3</v>
+      <c r="H14" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14" s="18">
+        <v>40</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -2490,10 +2493,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="10">
         <v>9</v>
@@ -2502,10 +2505,10 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="19">
         <v>33</v>
       </c>
       <c r="J15" s="10"/>
@@ -2516,22 +2519,22 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I16" s="10">
+      <c r="H16" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" s="19">
         <v>60</v>
       </c>
       <c r="J16" s="10"/>
@@ -2542,22 +2545,22 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="10">
-        <v>14</v>
+        <v>210</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I17" s="10">
+      <c r="H17" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="19">
         <v>60</v>
       </c>
       <c r="J17" s="10"/>
@@ -2568,10 +2571,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>229</v>
@@ -2580,11 +2583,11 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I18" s="10">
-        <v>60</v>
+      <c r="H18" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="19">
+        <v>58</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
@@ -2594,7 +2597,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="10"/>
@@ -2602,12 +2605,8 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="I19" s="18">
-        <v>3</v>
-      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -2616,7 +2615,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="10"/>
@@ -2625,7 +2624,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
       <c r="H20" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I20" s="19">
         <v>34</v>
@@ -2638,7 +2637,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="10"/>
@@ -2646,8 +2645,8 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -2656,7 +2655,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="10"/>
@@ -2664,8 +2663,8 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -2674,7 +2673,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="10"/>
@@ -2682,8 +2681,8 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="10"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2692,7 +2691,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="10"/>
@@ -2700,8 +2699,8 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="10"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2710,7 +2709,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="10"/>
@@ -2718,8 +2717,8 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="10"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2728,7 +2727,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="10"/>
@@ -2736,8 +2735,8 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="10"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2746,7 +2745,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="10"/>
@@ -2754,8 +2753,8 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="10"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2764,7 +2763,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="10"/>
@@ -2772,8 +2771,8 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="10"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -2782,7 +2781,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="10"/>
@@ -2790,8 +2789,8 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="10"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
@@ -2800,7 +2799,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="10"/>
@@ -2808,8 +2807,8 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="10"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -2818,7 +2817,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="10"/>
@@ -2826,8 +2825,8 @@
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="10"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -2836,7 +2835,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="10"/>
@@ -2844,8 +2843,8 @@
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="10"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
@@ -2854,7 +2853,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="10"/>
@@ -2862,8 +2861,8 @@
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="10"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="19"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
@@ -2891,7 +2890,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2902,45 +2901,45 @@
   <sheetData>
     <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="20" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7"/>
       <c r="H2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -2950,7 +2949,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="10"/>
@@ -2959,10 +2958,10 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
       <c r="H3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -2972,7 +2971,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="10"/>
@@ -2990,7 +2989,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="10"/>
@@ -2999,7 +2998,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I5" s="10">
         <v>60</v>
@@ -3012,10 +3011,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="10">
         <v>39</v>
@@ -3025,7 +3024,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I6" s="10">
         <v>60</v>
@@ -3040,16 +3039,14 @@
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="11"/>
       <c r="H7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I7" s="10">
         <v>49</v>
@@ -3064,16 +3061,14 @@
       <c r="A8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I8" s="10">
         <v>30</v>
@@ -3125,7 +3120,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="10">
         <v>5</v>
@@ -3396,7 +3391,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="10"/>
@@ -3414,7 +3409,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="10"/>
@@ -3432,7 +3427,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="10"/>
@@ -3450,7 +3445,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="10"/>
@@ -3468,7 +3463,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="10"/>
@@ -3486,7 +3481,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="10"/>
@@ -3504,7 +3499,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="10"/>
@@ -3522,7 +3517,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="10"/>
@@ -3578,10 +3573,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>87</v>
@@ -3592,7 +3587,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -4272,7 +4267,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>

--- a/mess.xlsx
+++ b/mess.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Crossgate\pkml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBECB61F-E12A-4289-BF2D-C0E4DC9C53D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF04CDF4-CB93-4D43-97E9-88FB5042AEF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30504" yWindow="0" windowWidth="30936" windowHeight="16800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗系" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="234">
   <si>
     <t>右边</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,9 +752,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>2花</t>
-  </si>
-  <si>
     <t>3花</t>
   </si>
   <si>
@@ -825,10 +822,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13+14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -841,15 +834,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2+18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5木</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡椒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33+18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4花</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1075,16 +1084,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1092,6 +1107,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1544,7 +1565,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1552,7 +1573,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1560,7 +1581,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1568,7 +1589,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1576,7 +1597,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2119,57 +2140,53 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="9" width="9" style="20"/>
+    <col min="8" max="9" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="20">
         <v>60</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="I2" s="18">
-        <v>60</v>
-      </c>
-      <c r="J2" s="5"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="8"/>
@@ -2179,23 +2196,23 @@
       <c r="A3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="17">
         <v>60</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="I3" s="19">
+        <v>218</v>
+      </c>
+      <c r="I3" s="17">
         <v>13</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
@@ -2205,23 +2222,19 @@
       <c r="A4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="10">
-        <v>60</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <v>60</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="12"/>
@@ -2231,23 +2244,23 @@
       <c r="A5" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="17">
         <v>60</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="I5" s="19">
+        <v>226</v>
+      </c>
+      <c r="I5" s="17">
         <v>39</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="12"/>
@@ -2257,23 +2270,23 @@
       <c r="A6" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="17">
         <v>8</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="17">
         <v>57</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="12"/>
@@ -2283,23 +2296,23 @@
       <c r="A7" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="B7" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="17">
         <v>14</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="19">
-        <v>36</v>
-      </c>
-      <c r="J7" s="10"/>
+      <c r="I7" s="17">
+        <v>29</v>
+      </c>
+      <c r="J7" s="17"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="12"/>
@@ -2309,27 +2322,27 @@
       <c r="A8" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="17">
         <v>23</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="17">
         <v>36</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="17">
         <v>60</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="12"/>
@@ -2339,23 +2352,23 @@
       <c r="A9" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="10">
-        <v>50</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="C9" s="17">
+        <v>60</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <v>58</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="12"/>
@@ -2365,23 +2378,19 @@
       <c r="A10" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="10">
-        <v>60</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="17">
         <v>20</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="12"/>
@@ -2391,23 +2400,23 @@
       <c r="A11" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="18">
-        <v>20</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
+      <c r="B11" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="17">
+        <v>60</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="17">
         <v>60</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="12"/>
@@ -2417,23 +2426,23 @@
       <c r="A12" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
+      <c r="C12" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="17">
         <v>43</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="12"/>
@@ -2443,23 +2452,23 @@
       <c r="A13" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="I13" s="18">
+      <c r="C13" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" s="17">
         <v>60</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="12"/>
@@ -2469,23 +2478,23 @@
       <c r="A14" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="17">
         <v>22</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="I14" s="18">
-        <v>40</v>
-      </c>
-      <c r="J14" s="10"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="26">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="12"/>
@@ -2495,23 +2504,23 @@
       <c r="A15" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="17">
         <v>9</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="17">
         <v>33</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="12"/>
@@ -2521,23 +2530,23 @@
       <c r="A16" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+      <c r="C16" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="I16" s="19">
+        <v>226</v>
+      </c>
+      <c r="I16" s="17">
         <v>60</v>
       </c>
-      <c r="J16" s="10"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="12"/>
@@ -2547,23 +2556,23 @@
       <c r="A17" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
+      <c r="B17" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="I17" s="19">
+        <v>212</v>
+      </c>
+      <c r="I17" s="17">
         <v>60</v>
       </c>
-      <c r="J17" s="10"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="12"/>
@@ -2573,23 +2582,23 @@
       <c r="A18" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
+      <c r="B18" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="I18" s="19">
+        <v>210</v>
+      </c>
+      <c r="I18" s="17">
         <v>58</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="12"/>
@@ -2599,15 +2608,15 @@
       <c r="A19" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="10"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="12"/>
@@ -2617,19 +2626,19 @@
       <c r="A20" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="I20" s="19">
+        <v>211</v>
+      </c>
+      <c r="I20" s="17">
         <v>34</v>
       </c>
-      <c r="J20" s="10"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="12"/>
@@ -2639,15 +2648,19 @@
       <c r="A21" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="10"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I21" s="17">
+        <v>54</v>
+      </c>
+      <c r="J21" s="17"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="12"/>
@@ -2657,15 +2670,23 @@
       <c r="A22" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="10"/>
+      <c r="B22" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="17">
+        <v>6</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="I22" s="17">
+        <v>52</v>
+      </c>
+      <c r="J22" s="17"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="12"/>
@@ -2675,15 +2696,23 @@
       <c r="A23" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="10"/>
+      <c r="B23" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="17">
+        <v>52</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="I23" s="17">
+        <v>60</v>
+      </c>
+      <c r="J23" s="17"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="12"/>
@@ -2693,15 +2722,15 @@
       <c r="A24" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="10"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="12"/>
@@ -2718,7 +2747,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="19"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2736,7 +2765,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="19"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2754,7 +2783,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="19"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2772,7 +2801,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="11"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="19"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -2790,7 +2819,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="11"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="19"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
@@ -2808,7 +2837,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="19"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -2826,7 +2855,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="16"/>
-      <c r="I31" s="19"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -2844,7 +2873,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="19"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
@@ -2862,7 +2891,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="19"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
@@ -2890,7 +2919,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2903,43 +2932,43 @@
       <c r="A1" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7"/>
       <c r="H2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -2997,12 +3026,8 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5" s="10">
-        <v>60</v>
-      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -3013,18 +3038,14 @@
       <c r="A6" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="10">
-        <v>39</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I6" s="10">
         <v>60</v>
@@ -3039,8 +3060,12 @@
       <c r="A7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="10">
+        <v>27</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -3049,7 +3074,7 @@
         <v>145</v>
       </c>
       <c r="I7" s="10">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -3068,7 +3093,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
       <c r="H8" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I8" s="10">
         <v>30</v>
@@ -3120,7 +3145,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="10">
         <v>5</v>
@@ -4267,7 +4292,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
